--- a/2016 Observer Ratings.xlsx
+++ b/2016 Observer Ratings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashantyadav/Dropbox/Virtual Interview/2016 Mock Interviews/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashantyadav/pyadav1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="559">
   <si>
     <t>Mode</t>
   </si>
@@ -1708,6 +1708,9 @@
   </si>
   <si>
     <t>Dye,Steffani L</t>
+  </si>
+  <si>
+    <t>CODY AUSTIN   1111111</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2146,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="H113" sqref="H113"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4818,7 +4821,7 @@
         <v>112</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
